--- a/main/new_companies.xlsx
+++ b/main/new_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG17"/>
+  <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,239 +506,234 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 14</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Full Description</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Full Description</t>
+          <t>CB (Crunchbase) Link</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>CB (Crunchbase) Link</t>
+          <t>Company CB Categories</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Company CB Categories</t>
+          <t>Company_Location</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Company_Location</t>
+          <t>Company_Founded_Year</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Company_Founded_Year</t>
+          <t>Company_Number_of_Employees</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Company_Number_of_Employees</t>
+          <t>Company_CB_Rank</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Company_CB_Rank</t>
+          <t>Funding_Status</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Funding_Status</t>
+          <t>Last_Funding_Type</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Last_Funding_Type</t>
+          <t>Last_Funding_Date</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Last_Funding_Date</t>
+          <t>Last_Funding_Amount</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Last_Funding_Amount</t>
+          <t>Total_Funding_Amount</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Total_Funding_Amount</t>
+          <t>Total_Funding_Amount_M_dollars</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Total_Funding_Amount_M_dollars</t>
+          <t>Number_of_Funding_Rounds</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Number_of_Funding_Rounds</t>
+          <t>Estimated_Revenue_Range</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Estimated_Revenue_Range</t>
+          <t>Company_Number_of_Investors</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Company_Number_of_Investors</t>
+          <t>Company_Number_of_Investments</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Company_Number_of_Investments</t>
+          <t>Company LinkedIn Link</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Company LinkedIn Link</t>
+          <t>Company_LinkedIn_Followers_Number</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Company_LinkedIn_Followers_Number</t>
+          <t>Company Contact Email</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Company Contact Email</t>
+          <t>Company phone number</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Company phone number</t>
+          <t>Founders</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Founders</t>
+          <t xml:space="preserve">CSO </t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSO </t>
+          <t>CTO</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>CTO</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>COO</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Co-Founder</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Co-Founder</t>
+          <t>President</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Team Members</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Team Members</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>former company names</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>former company names</t>
+          <t>acquired</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>acquired</t>
+          <t>product_stage</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>product_stage</t>
+          <t xml:space="preserve">Number of Patents </t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Number of Patents </t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Unnamed: 51</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 52</t>
+          <t>Contact Name</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Contact Name</t>
+          <t>Contact Phone Number / Email</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Contact Phone Number / Email</t>
+          <t>האם יצרנו איתם כבר קשר? (כדי לא להתיש)</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>האם יצרנו איתם כבר קשר? (כדי לא להתיש)</t>
+          <t>BrainstormIL contact</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>BrainstormIL contact</t>
+          <t>Unnamed: 56</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 57</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 58</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dive</t>
+          <t>CardiaCare</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -746,41 +741,47 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://finder.startupnationcentral.org/company_page/dive-1</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>CardiaCare is a medical device for with neuromodulation therapy in AFib patients.</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Innovation for Psychology</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+          <t>CardiaCare is a medical device for neuromodulation therapy in AFib patients.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/cardiacare</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>2022</v>
-      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Ness Ziona, HaMerkaz, Israel</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2018-01-01</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1-10</t>
+          <t>101,741</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Pre-Funding</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -815,17 +816,16 @@
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Enlight Exchange</t>
+          <t>Epitech</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -833,41 +833,47 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://finder.startupnationcentral.org/company_page/enlight-exchange</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Epitech is developing a Breakthrough Treatment For Dry Eye Syndrome.</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Global Mental Health Data Exchange</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+          <t>Epitech is a developer of non-invasive ocular neurostimulation therapy, designed to treat the entire ocular surface and tear film, for long-lasting relief of dry eye symptoms. Its proprietary technology is based on neurostimulation by targeted magnetic fields, resulting in the reinforcement of the structural integrity of the ocular surface. Epitech the company was founded in 2015 and is based in Yokneam Illit, Israel.</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/epitech-3</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>2022</v>
-      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Yoqne`am `illit, HaZafon, Israel</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2015-01-01</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1-10</t>
+          <t>139,249</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Pre-Funding</t>
-        </is>
-      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
@@ -902,17 +908,16 @@
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MSICS Pharma</t>
+          <t>Aposense</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -920,41 +925,47 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://finder.startupnationcentral.org/company_page/msics-pharma</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Aposense is a molecular imaging and drug development company, with a pipeline of products, based on its apoptosis-based technology.</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Naturally sourced Psilocybin for Mental Healthcare</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+          <t>Aposense (formerly NST) is a clinical-stage molecular imaging and drug development company, with a pipeline of products based on its patented platform technology for targeting apoptosis (programmed cell death) in vivo. The company translating the science of Apoptosis (programmed cell death) into personalized patient care in multiple disease categories, including oncology, cardiology, and neurology. Targeting of this important biological process in-vivo opens opportunities for real-time clinical imaging of disease activity and targeted therapy. Aposense specializing in the development of novel drugs and utilizing membrane electrical forces for trans-membrane of macromolecule drugs, mainly siRNA. It also developed rationally-designed molecular nano-motors (MNMs), being novel small-molecule chemical entities and its translation into kinetic energy for movement within the hydrophobic membrane core. Aposense was founded in 1996 and is headquartered in Petah Tiqva, HaMerkaz, Israel.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/aposense</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>2022</v>
-      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Petah Tiqva, HaMerkaz, Israel</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1996-01-01</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1-10</t>
+          <t>250,425</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Pre-Funding</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -989,17 +1000,16 @@
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Beffi</t>
+          <t>GG Apps</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1007,41 +1017,47 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://finder.startupnationcentral.org/company_page/beffi</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>GG Apps specializes in providing cognitive behavioral therapy application.</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>AI-Based Companion for Elderly Brain Mental Health Support</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+          <t>GG Apps specializes in providing cognitive behavioral therapy applications. The platform was created for the sole purpose of utilizing the latest mobile technologies for effective psychological training. The company was founded in 2016 and is headquartered in Tel Aviv, Israel.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/gg-apps</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>2021</v>
-      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Tel Aviv, Tel Aviv, Israel</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1-10</t>
+          <t>574,625</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Pre-Funding</t>
-        </is>
-      </c>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -1076,17 +1092,16 @@
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CardiaCare</t>
+          <t>New Bio Technology</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1101,39 +1116,35 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>CardiaCare is a medical device for with neuromodulation therapy in AFib patients.</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>New Bio Technology provides lab instrumentation for neuroscience research and tailors solutions for various research entities.</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CardiaCare is a medical device for neuromodulation therapy in AFib patients.</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/cardiacare</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>https://www.crunchbase.com/organization/nbt-new-bio-technology</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Or Akiva, Hefa, Israel</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Ness Ziona, HaMerkaz, Israel</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>2018-01-01</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>101,741</t>
-        </is>
-      </c>
+          <t>1992-01-01</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>653,014</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -1169,17 +1180,16 @@
       <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epitech</t>
+          <t>Corundum Neuroscience</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1194,39 +1204,31 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Epitech is developing a Breakthrough Treatment For Dry Eye Syndrome.</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Corundum Neuroscience is a research, venture building, and investment firm for neuroscience related projects.</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Epitech is a developer of non-invasive ocular neurostimulation therapy, designed to treat the entire ocular surface and tear film, for long-lasting relief of dry eye symptoms. Its proprietary technology is based on neurostimulation by targeted magnetic fields, resulting in the reinforcement of the structural integrity of the ocular surface. Epitech the company was founded in 2015 and is based in Yokneam Illit, Israel.</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/epitech-3</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Yoqne`am `illit, HaZafon, Israel</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>2015-01-01</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>139,249</t>
-        </is>
-      </c>
+          <t>https://www.crunchbase.com/organization/corundum-neuroscience</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Herzliya, Tel Aviv, Israel</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>991,149</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1262,17 +1264,16 @@
       <c r="BD7" t="inlineStr"/>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aposense</t>
+          <t>Synapse Research</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1287,39 +1288,31 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Aposense is a molecular imaging and drug development company, with a pipeline of products, based on its apoptosis-based technology.</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Synapse Research is a digital marketing agency that provides community management, web development, social media, and metaverse services.</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Aposense (formerly NST) is a clinical-stage molecular imaging and drug development company, with a pipeline of products based on its patented platform technology for targeting apoptosis (programmed cell death) in vivo. The company translating the science of Apoptosis (programmed cell death) into personalized patient care in multiple disease categories, including oncology, cardiology, and neurology. Targeting of this important biological process in-vivo opens opportunities for real-time clinical imaging of disease activity and targeted therapy. Aposense specializing in the development of novel drugs and utilizing membrane electrical forces for trans-membrane of macromolecule drugs, mainly siRNA. It also developed rationally-designed molecular nano-motors (MNMs), being novel small-molecule chemical entities and its translation into kinetic energy for movement within the hydrophobic membrane core. Aposense was founded in 1996 and is headquartered in Petah Tiqva, HaMerkaz, Israel.</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/aposense</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Petah Tiqva, HaMerkaz, Israel</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1996-01-01</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>250,425</t>
-        </is>
-      </c>
+          <t>https://www.crunchbase.com/organization/synapse-research</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Tel Aviv, Tel Aviv, Israel</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1,210,988</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1355,17 +1348,16 @@
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GG Apps</t>
+          <t>Clara Mind</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1380,39 +1372,39 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Clara Mind is a personalized tool for early identification of cognitive decline enabling remote monitoring of patients cognitive status.</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>GG Apps specializes in providing cognitive behavioral therapy application.</t>
+          <t>Clara Mind is a personalized tool for early identification of cognitive decline enabling remote monitoring of patient's cognitive status. This easy-to-use app enables remote monitoring of patients' cognitive status, thus bringing earlier care to care to patients and impacting the course of treatment. The tool brings care to patients before it is too late, impacting their treatment, healthcare systems, and drug development. Clara Mind saves valuable time for the doctor, as the patient can perform the test in the clinic waiting room, or even at home. The company compares your orientation performance to a large database of patients to provide your healthcare provider with critical information to help with your diagnosis and treatment.</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>GG Apps specializes in providing cognitive behavioral therapy applications. The platform was created for the sole purpose of utilizing the latest mobile technologies for effective psychological training. The company was founded in 2016 and is headquartered in Tel Aviv, Israel.</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/gg-apps</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>https://www.crunchbase.com/organization/clara-mind</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Tel Aviv, Tel Aviv, Israel</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Tel Aviv, Tel Aviv, Israel</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>2016-01-01</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>574,625</t>
-        </is>
-      </c>
+          <t>2016-09-01</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1,274,195</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1448,17 +1440,16 @@
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>New Bio Technology</t>
+          <t>Lev Hasharon Mental Health Center</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1473,35 +1464,31 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>New Bio Technology provides lab instrumentation for neuroscience research and tailors solutions for various research entities.</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/nbt-new-bio-technology</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Or Akiva, Hefa, Israel</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>1992-01-01</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>653,014</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lev Hasharon Mental Health Center is a mental health center that offers psychiatry, psychology, and depression treatments.</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/lev-hasharon-mental-health-center</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Tsur Moshe, HaMerkaz, Israel</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1,521,471</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -1537,17 +1524,16 @@
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Corundum Neuroscience</t>
+          <t>AvoMed</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1562,31 +1548,35 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>AvoMed specializes in focusing on Hematology, Neurology, Oncology, Rheumatology, and Dermatology with specific game-changing key products.</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Corundum Neuroscience is a research, venture building, and investment firm for neuroscience related projects.</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/corundum-neuroscience</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Herzliya, Tel Aviv, Israel</t>
-        </is>
-      </c>
+          <t>AvoMed specializes in focusing on Hematology, Neurology, Oncology, Rheumatology, and Dermatology with specific game-changing key products.</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/avomed</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Tel Aviv, Tel Aviv, Israel</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>991,149</t>
-        </is>
-      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1,653,087</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -1622,17 +1612,16 @@
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Synapse Research</t>
+          <t>RGL Research</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1647,31 +1636,39 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Contract Research Organization</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Synapse Research is a digital marketing agency that provides community management, web development, social media, and metaverse services.</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/synapse-research</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>R.G.L Research is a contract research organization (CRO) providing expertise and reliable support to the pharmaceutical industries for conducting Clinical Trials. Our clients and partners include pharmaceuticals, biotechnologies, startups, academic and government organization. R.G.L Research is providing tailored and quality services to help clients and partners bend the cost and time curve of drug development to deliver new alternative product and innovative treatment to improve patients quality of life. R.G.L Research has vast professional experience and academic knowledge in performing clinical trials in Israel as well as developing health product in diverse therapeutic areas of medicine, in particular, neurology (Alzheimer, ALS, Multiple Sclerosis, Parkinson) and oncology (ovarian, colorectal cancer, T-Cell Lymphoma). Through its strong links and partnerships, R.G.L Research has become an international platform for clinical trials allowing its clients to reach patients from Israel, the United-States, France, Eastern Europe, NorthAfrica, ad India.</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/rgl-research</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Tel Aviv, Tel Aviv, Israel</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Tel Aviv, Tel Aviv, Israel</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>1,210,988</t>
-        </is>
-      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2,692,900</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1707,17 +1704,16 @@
       <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Clara Mind</t>
+          <t>PSYK-ed</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1732,39 +1728,31 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Clara Mind is a personalized tool for early identification of cognitive decline enabling remote monitoring of patients cognitive status.</t>
-        </is>
-      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>PSYK-ed is a mental health company.</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Clara Mind is a personalized tool for early identification of cognitive decline enabling remote monitoring of patient's cognitive status. This easy-to-use app enables remote monitoring of patients' cognitive status, thus bringing earlier care to care to patients and impacting the course of treatment. The tool brings care to patients before it is too late, impacting their treatment, healthcare systems, and drug development. Clara Mind saves valuable time for the doctor, as the patient can perform the test in the clinic waiting room, or even at home. The company compares your orientation performance to a large database of patients to provide your healthcare provider with critical information to help with your diagnosis and treatment.</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/clara-mind</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Tel Aviv, Tel Aviv, Israel</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>2016-09-01</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>1,274,195</t>
-        </is>
-      </c>
+          <t>https://www.crunchbase.com/organization/psyk-ed</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Bet Shemesh, Yerushalayim, Israel</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2,742,827</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -1800,17 +1788,16 @@
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lev Hasharon Mental Health Center</t>
+          <t>Dive</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1818,36 +1805,38 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/dive-1</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Lev Hasharon Mental Health Center is a mental health center that offers psychiatry, psychology, and depression treatments.</t>
-        </is>
-      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Innovation for Psychology</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/lev-hasharon-mental-health-center</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Tsur Moshe, HaMerkaz, Israel</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1,521,471</t>
+          <t>Pre-Funding</t>
         </is>
       </c>
       <c r="X14" t="inlineStr"/>
@@ -1885,17 +1874,16 @@
       <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AvoMed</t>
+          <t>Enlight Exchange</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1903,40 +1891,38 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/enlight-exchange</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>AvoMed specializes in focusing on Hematology, Neurology, Oncology, Rheumatology, and Dermatology with specific game-changing key products.</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>AvoMed specializes in focusing on Hematology, Neurology, Oncology, Rheumatology, and Dermatology with specific game-changing key products.</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/avomed</t>
-        </is>
-      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Global Mental Health Data Exchange</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Tel Aviv, Tel Aviv, Israel</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1,653,087</t>
+          <t>Pre-Funding</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
@@ -1974,17 +1960,16 @@
       <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RGL Research</t>
+          <t>MSICS Pharma</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1992,44 +1977,38 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/msics-pharma</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Contract Research Organization</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>R.G.L Research is a contract research organization (CRO) providing expertise and reliable support to the pharmaceutical industries for conducting Clinical Trials. Our clients and partners include pharmaceuticals, biotechnologies, startups, academic and government organization. R.G.L Research is providing tailored and quality services to help clients and partners bend the cost and time curve of drug development to deliver new alternative product and innovative treatment to improve patients quality of life. R.G.L Research has vast professional experience and academic knowledge in performing clinical trials in Israel as well as developing health product in diverse therapeutic areas of medicine, in particular, neurology (Alzheimer, ALS, Multiple Sclerosis, Parkinson) and oncology (ovarian, colorectal cancer, T-Cell Lymphoma). Through its strong links and partnerships, R.G.L Research has become an international platform for clinical trials allowing its clients to reach patients from Israel, the United-States, France, Eastern Europe, NorthAfrica, ad India.</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/rgl-research</t>
-        </is>
-      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Naturally sourced Psilocybin for Mental Healthcare</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Tel Aviv, Tel Aviv, Israel</t>
-        </is>
+      <c r="T16" t="n">
+        <v>2022</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>1-10</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>2,692,900</t>
+          <t>Pre-Funding</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -2067,17 +2046,16 @@
       <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PSYK-ed</t>
+          <t>Beffi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21-08-2024</t>
+          <t>23-08-2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2085,36 +2063,38 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/beffi</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>PSYK-ed is a mental health company.</t>
-        </is>
-      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>AI-Based Companion for Elderly Brain Mental Health Support</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/psyk-ed</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Bet Shemesh, Yerushalayim, Israel</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>2021</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2,742,827</t>
+          <t>Pre-Funding</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -2152,7 +2132,6 @@
       <c r="BD17" t="inlineStr"/>
       <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/main/new_companies.xlsx
+++ b/main/new_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF17"/>
+  <dimension ref="A1:BH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Company_Name</t>
+          <t>Company Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -476,264 +476,274 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Neurotech_Category</t>
+          <t>Neurotech Category</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Market_Category</t>
+          <t>Market Category</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Target_Market</t>
+          <t>Target Market</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>TechTools_1</t>
+          <t>TechTools 1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>TechTools_2</t>
+          <t>TechTools 2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>TechTools_3</t>
+          <t>TechTools 3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Finder Description</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Full Description</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>CB (Crunchbase) Link</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Company CB Categories</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Company Location</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Company Founded Year</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Company Number of Employees</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Company CB Rank</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Funding Status</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Last Funding Type</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Last Funding Date</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Last Funding Amount</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Total Funding Amount</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Total Funding Amount M dollars</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Funding Rounds</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Estimated Revenue Range</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Company Number of Investors</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Company Number of Investments</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Company LinkedIn Link</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Company LinkedIn Followers Number</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Company Contact Email</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Company phone number</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Founders</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>COO</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Co-Founder</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>President</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Team Members</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>former company names</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>acquired</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Product Stage</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Patents</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 52</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Name</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Phone Number / Email</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>האם יצרנו איתם כבר קשר? (כדי לא להתיש)</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>BrainstormIL contact</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 57</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 58</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Company_Location</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Company_Founded_Year</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Company_Number_of_Employees</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Company_CB_Rank</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Funding_Status</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Last_Funding_Type</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Last_Funding_Date</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Last_Funding_Amount</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Funding_Amount</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Funding_Amount_M_dollars</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Number_of_Funding_Rounds</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Estimated_Revenue_Range</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Company_Number_of_Investors</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Company_Number_of_Investments</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Company LinkedIn Link</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Company_LinkedIn_Followers_Number</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Company Contact Email</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Company phone number</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Founders</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CSO </t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>CTO</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>CEO</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>COO</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>CFO</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Co-Founder</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>President</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Team Members</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>former company names</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>acquired</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>product_stage</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of Patents </t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 51</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Contact Name</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Contact Phone Number / Email</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>האם יצרנו איתם כבר קשר? (כדי לא להתיש)</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>BrainstormIL contact</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 56</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 57</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CardiaCare</t>
+          <t>BrainStorm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -741,47 +751,41 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/brainstorm</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>CardiaCare is a medical device for with neuromodulation therapy in AFib patients.</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>CardiaCare is a medical device for neuromodulation therapy in AFib patients.</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/cardiacare</t>
-        </is>
-      </c>
+          <t>Autologous Stem Cell Therapeutics for Neurodegenerative Disorders</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Ness Ziona, HaMerkaz, Israel</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>2018-01-01</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>2000</v>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>101,741</t>
+          <t>11-50</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -816,16 +820,18 @@
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epitech</t>
+          <t>Qrons</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -833,47 +839,41 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/qrons</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Epitech is developing a Breakthrough Treatment For Dry Eye Syndrome.</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Epitech is a developer of non-invasive ocular neurostimulation therapy, designed to treat the entire ocular surface and tear film, for long-lasting relief of dry eye symptoms. Its proprietary technology is based on neurostimulation by targeted magnetic fields, resulting in the reinforcement of the structural integrity of the ocular surface. Epitech the company was founded in 2015 and is based in Yokneam Illit, Israel.</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/epitech-3</t>
-        </is>
-      </c>
+          <t>Advanced Stem-cell-based Solutions for Neuronal Injuries</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Yoqne`am `illit, HaZafon, Israel</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>2015-01-01</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>2016</v>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>139,249</t>
+          <t>11-50</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
@@ -908,16 +908,18 @@
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aposense</t>
+          <t>Nanocarry Therapeutics</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -925,47 +927,41 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/nanocarry-therapeutics</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Aposense is a molecular imaging and drug development company, with a pipeline of products, based on its apoptosis-based technology.</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Aposense (formerly NST) is a clinical-stage molecular imaging and drug development company, with a pipeline of products based on its patented platform technology for targeting apoptosis (programmed cell death) in vivo. The company translating the science of Apoptosis (programmed cell death) into personalized patient care in multiple disease categories, including oncology, cardiology, and neurology. Targeting of this important biological process in-vivo opens opportunities for real-time clinical imaging of disease activity and targeted therapy. Aposense specializing in the development of novel drugs and utilizing membrane electrical forces for trans-membrane of macromolecule drugs, mainly siRNA. It also developed rationally-designed molecular nano-motors (MNMs), being novel small-molecule chemical entities and its translation into kinetic energy for movement within the hydrophobic membrane core. Aposense was founded in 1996 and is headquartered in Petah Tiqva, HaMerkaz, Israel.</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/aposense</t>
-        </is>
-      </c>
+          <t>Nanoparticle-based Therapeutics for Brain Cancer and CNS Disorders</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Petah Tiqva, HaMerkaz, Israel</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>1996-01-01</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>2021</v>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>250,425</t>
+          <t>1-10</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Pre-Seed</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -1000,16 +996,18 @@
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GG Apps</t>
+          <t>Madrigal Mental Care</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1017,47 +1015,41 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/madrigal-mental-care</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>GG Apps specializes in providing cognitive behavioral therapy application.</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>GG Apps specializes in providing cognitive behavioral therapy applications. The platform was created for the sole purpose of utilizing the latest mobile technologies for effective psychological training. The company was founded in 2016 and is headquartered in Tel Aviv, Israel.</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/gg-apps</t>
-        </is>
-      </c>
+          <t>Nasal Spray for Delivering Psychedelic Drugs to Treat PTSD</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Tel Aviv, Tel Aviv, Israel</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2016-01-01</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>2021</v>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>574,625</t>
+          <t>11-50</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Pre-Funding</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -1092,16 +1084,18 @@
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>New Bio Technology</t>
+          <t>Nextar Chempharma Solutions</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1109,43 +1103,41 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/nextar-chempharma-solutions</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>New Bio Technology provides lab instrumentation for neuroscience research and tailors solutions for various research entities.</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/nbt-new-bio-technology</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Contract Drug Development and Manufacturing</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Or Akiva, Hefa, Israel</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>1992-01-01</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>2007</v>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>653,014</t>
+          <t>11-50</t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Mature</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -1180,16 +1172,18 @@
       <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Corundum Neuroscience</t>
+          <t>NovaSight</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1197,39 +1191,41 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/novasight</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Corundum Neuroscience is a research, venture building, and investment firm for neuroscience related projects.</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/corundum-neuroscience</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Eye-Tracking Based Solutions for Pediatric Vision Care</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Herzliya, Tel Aviv, Israel</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>2016</v>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>991,149</t>
+          <t>11-50</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1264,16 +1260,18 @@
       <c r="BD7" t="inlineStr"/>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synapse Research</t>
+          <t>MemoBoost</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1281,39 +1279,41 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/memoboost</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Synapse Research is a digital marketing agency that provides community management, web development, social media, and metaverse services.</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/synapse-research</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Drug Treatment to Inhibit Dementia</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Tel Aviv, Tel Aviv, Israel</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>2016</v>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1,210,988</t>
+          <t>1-10</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -1348,16 +1348,18 @@
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Clara Mind</t>
+          <t>EndoStream Medical</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1365,47 +1367,41 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/endostream-medical</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Clara Mind is a personalized tool for early identification of cognitive decline enabling remote monitoring of patients cognitive status.</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Clara Mind is a personalized tool for early identification of cognitive decline enabling remote monitoring of patient's cognitive status. This easy-to-use app enables remote monitoring of patients' cognitive status, thus bringing earlier care to care to patients and impacting the course of treatment. The tool brings care to patients before it is too late, impacting their treatment, healthcare systems, and drug development. Clara Mind saves valuable time for the doctor, as the patient can perform the test in the clinic waiting room, or even at home. The company compares your orientation performance to a large database of patients to provide your healthcare provider with critical information to help with your diagnosis and treatment.</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/clara-mind</t>
-        </is>
-      </c>
+          <t>Aneurysm Devices</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Tel Aviv, Tel Aviv, Israel</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>2016-09-01</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>2015</v>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1,274,195</t>
+          <t>11-50</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1440,16 +1436,18 @@
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lev Hasharon Mental Health Center</t>
+          <t>LuSeed Vascular</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1457,39 +1455,41 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/luseed-vascular-1</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Lev Hasharon Mental Health Center is a mental health center that offers psychiatry, psychology, and depression treatments.</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/lev-hasharon-mental-health-center</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Vascular Remodeling Device</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Tsur Moshe, HaMerkaz, Israel</t>
-        </is>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>2017</v>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1,521,471</t>
+          <t>11-50</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1524,16 +1524,18 @@
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AvoMed</t>
+          <t>NOGA Therapeutics</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1541,43 +1543,41 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/noga-therapeutics</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>AvoMed specializes in focusing on Hematology, Neurology, Oncology, Rheumatology, and Dermatology with specific game-changing key products.</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>AvoMed specializes in focusing on Hematology, Neurology, Oncology, Rheumatology, and Dermatology with specific game-changing key products.</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/avomed</t>
-        </is>
-      </c>
+          <t>Gene Therapies for Severe and Chronic Illnesses</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Tel Aviv, Tel Aviv, Israel</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>2020</v>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1,653,087</t>
+          <t>1-10</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
@@ -1612,16 +1612,18 @@
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RGL Research</t>
+          <t>Newton Tech</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1629,47 +1631,41 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/newton-tech</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Contract Research Organization</t>
-        </is>
-      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>R.G.L Research is a contract research organization (CRO) providing expertise and reliable support to the pharmaceutical industries for conducting Clinical Trials. Our clients and partners include pharmaceuticals, biotechnologies, startups, academic and government organization. R.G.L Research is providing tailored and quality services to help clients and partners bend the cost and time curve of drug development to deliver new alternative product and innovative treatment to improve patients quality of life. R.G.L Research has vast professional experience and academic knowledge in performing clinical trials in Israel as well as developing health product in diverse therapeutic areas of medicine, in particular, neurology (Alzheimer, ALS, Multiple Sclerosis, Parkinson) and oncology (ovarian, colorectal cancer, T-Cell Lymphoma). Through its strong links and partnerships, R.G.L Research has become an international platform for clinical trials allowing its clients to reach patients from Israel, the United-States, France, Eastern Europe, NorthAfrica, ad India.</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/rgl-research</t>
-        </is>
-      </c>
+          <t>AI-based Precision Rehabilitation Solution</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Tel Aviv, Tel Aviv, Israel</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>2015-01-01</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>2016</v>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2,692,900</t>
+          <t>1-10</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Pre-Funding</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -1704,16 +1700,18 @@
       <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PSYK-ed</t>
+          <t>GSKure</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1721,39 +1719,41 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/cerebramed</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>PSYK-ed is a mental health company.</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>https://www.crunchbase.com/organization/psyk-ed</t>
-        </is>
-      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Therapeutic Target for Treating Neurogenetic Disorders </t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Bet Shemesh, Yerushalayim, Israel</t>
-        </is>
-      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>2016</v>
+      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2,742,827</t>
+          <t>1-10</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Pre-Funding</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
@@ -1788,16 +1788,18 @@
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dive</t>
+          <t>XRHealth</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1807,7 +1809,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://finder.startupnationcentral.org/company_page/dive-1</t>
+          <t>https://finder.startupnationcentral.org/company_page/vrphysio</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1816,30 +1818,30 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Innovation for Psychology</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Virtual Clinic for Rehabilitation and Therapeutic Care</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>2022</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1-10</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Pre-Funding</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>2016</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
@@ -1874,16 +1876,18 @@
       <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Enlight Exchange</t>
+          <t>GaitBetter</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1893,7 +1897,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://finder.startupnationcentral.org/company_page/enlight-exchange</t>
+          <t>https://finder.startupnationcentral.org/company_page/gaitbetter</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1902,30 +1906,30 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Global Mental Health Data Exchange</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digital Therapeutic for gait rehabilitation, fall prevention, and prediction of neurodegeneration. </t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="V15" t="inlineStr">
         <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Pre-Funding</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -1960,16 +1964,18 @@
       <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MSICS Pharma</t>
+          <t>CellCure Neurosciences</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1979,7 +1985,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://finder.startupnationcentral.org/company_page/msics-pharma</t>
+          <t>https://finder.startupnationcentral.org/company_page/cell-cure-neurosciences</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1988,30 +1994,30 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Naturally sourced Psilocybin for Mental Healthcare</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Cell Therapies for Neural Degenerative Diseases</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>2022</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1-10</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Pre-Funding</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
@@ -2046,16 +2052,18 @@
       <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Beffi</t>
+          <t>IntoSleep</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2065,7 +2073,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://finder.startupnationcentral.org/company_page/beffi</t>
+          <t>https://finder.startupnationcentral.org/company_page/intosleep</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2074,30 +2082,30 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>AI-Based Companion for Elderly Brain Mental Health Support</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Personalized Real-time Sleep Solution </t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="n">
         <v>2021</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
         <is>
           <t>Pre-Funding</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
@@ -2132,6 +2140,2730 @@
       <c r="BD17" t="inlineStr"/>
       <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Anicca Health</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/anicca-health</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Emotion and Stress Regulation Wearable Device</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Pre-Seed</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Prilenia Therapeutics</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/prilenia-therapeutics</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>A clinical stage biotechnology company focused on the urgent mission to develop novel therapeutics to slow the progression of neurodegenerative diseases and neurodevelopmental disorders</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Matricelf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/matricelf</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Personalized Platform for Autologous Regenerative Medicine</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>2019</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NRx Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/nrx-pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Medicines for Life-threatening CNS Diseases</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>2014</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mapi Pharma</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/mapi-pharma</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Lifecycle Management for Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>2008</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>11-50</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>InspireMD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/inspiremd</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Stent System Technology for Preventing Embolization</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>2005</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>51-200</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PamBio</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/pambio</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Antifibrinolytic Therapy for Acute Bleeding Conditions</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>2014</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Avertto Medical</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/avertto-medical</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Avertto is developng the first medical device with an  AI- alert of an impending stroke based on biological mimicry</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>2019</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Vflow21</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/vflow21</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Neurovascular Diseases Solutions</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Dive</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/dive-1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Innovation for Psychology</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Pre-Funding</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MSICS Pharma</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/msics-pharma</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Naturally sourced Psilocybin for Mental Healthcare</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Pre-Funding</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cognitiv Neurosystems</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/cognitiv-neurosystems</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consumer Neurotechnology Platform </t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>2019</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Pre-Funding</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Insight Sparks</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://finder.startupnationcentral.org/company_page/insight-sparks</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Pedagogical Game Development</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>2014</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Pre-Funding</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BrainQ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>BrainQ develops a platform for precision neurology therapies to treat the impaired brain using a BCI-based approach.</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>BrainQ develops a platform for precision neurology therapies to treat the impaired brain using a BCI-based approach. The company was founded in 2016 and is headquartered in Jerusalem, Yerushalayim, Israel.</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/brainq</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>19,355</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>Jerusalem, Yerushalayim, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NYX</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>NYX develops Cognyx, a wearable device to help users improve their sleep and reduce stress.</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>NYX develops Cognyx, a wearable device to help users improve their sleep and reduce stress. The device is a wearable brain-tech headset that stimulates and monitors the user's brain activity. The platform combines specially designed algorithms, software, and hardware to provide an accessible and engaging experience to the consumer. It designs the device to help users fall asleep faster, optimize sleep cycles, analyze their sleep, and wake with increased energy. Wearers can also use it during the day to enable users to get into a meditative mode for relaxation and stress reduction. It connects the Cognyx device to a companion app that it designs to make controlling Cognyx and understanding the users' sleep stats simple and fun. NYX is an alumnus of the 8200 Entrepreneurship Program.</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/nyx-technologies</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>2016-08-01</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>193,602</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>Haifa, Hefa, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>QuantalX</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>QuantalX is a company of neuro-scientists, determined to bring neuroscientific advancements and understanding to the clinic.</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/quantalx</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>2014-01-01</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>378,384</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>Kfar Saba, HaMerkaz, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nano Carry</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Nano Carry is a technology platform for the safe and effective delivery of biologics to the brain.</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Nano Carry is a technology platform for the safe and effective delivery of biologics to the brain.</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/nano-carry</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>402,157</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>Ness Ziona, HaMerkaz, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Neuro Help</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Neuro Help is a company that designs and develops neurotechnological solutions patients with neurological conditions.</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/neuro-help</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>405,124</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>Ramat Gan, Tel Aviv, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epeius Pharma Ltd.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Epeius Pharma is a biotechnological health care company that delivers neurological disorders treatment through therapeutics.</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Epeius pharma is a cell and gene therapy company that is developing next-generation biological vehicles for therapeutic protein delivery into the central nervous system. The blood-brain barrier, which tightly regulates the transport of molecules to the brain and blocks the transport of most large, charged, and hydrophilic molecules, which are common features of therapeutic agents, makes efficient and predictable therapeutics delivery particularly difficult in neurological diseases. Protein replacement therapy is limited by the lack of effective CNS delivery methods, and there is still an unmet need for neurological disorder treatment.</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/epeius-pharma-ltd</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>409,061</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>Ness Ziona, HaMerkaz, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Topicx Customer Experience Systems</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>We use Generative-AI to train a human-like bot to interview customers, unlocking emotional insights that forecast customers’ behavior</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>We use Generative-AI to train a human-like bot to interview hundreds of customers within hours, to unlock emotional insights that forecast customers’ behavior</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/topicx-customer-experience-systems</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>467,839</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>Tel Aviv, Tel Aviv, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GG Apps</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>GG Apps specializes in providing cognitive behavioral therapy application.</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>GG Apps specializes in providing cognitive behavioral therapy applications. The platform was created for the sole purpose of utilizing the latest mobile technologies for effective psychological training. The company was founded in 2016 and is headquartered in Tel Aviv, Israel.</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/gg-apps</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>480,952</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>Tel Aviv, Tel Aviv, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lipogen</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Lipogen is a biotechnology company that innovates and manufactures phospholipids.</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Lipogen is a biotechnology company that innovates and manufactures phospholipids. The company was the first to introduce phosphatidylserine (PS) globally and clinically test soy-lecithin-based PS. Lipogen raw ingredients, used as ingredients in a variety of products, have been shown safe and effective in extensive clinical research. Lipogen delivers high quality products at competitive prices. Patented Lipogen formulas have applications in cognitive function, stress management, enhancing well-being, women's health and improving quality of life.</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/lipogen</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1992-01-01</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>491,221</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>Haifa, Hefa, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Otorize LTD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Otorize is a mobile app that detects cognitive impairment.</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Otorize is the first proven solution for detecting cognitive impairment. It’s a simple yet breakthrough app that can detect cognitive impairment in seconds. It doesn't use membranes or filters NOT intrusive, NO bodily fluids, NO HW needed, effective on all substances be it alcohol, cannabis or drugs. 100% digital. Otorize can help companies and managers prevent accidents caused by impaired operators in the workplace or DUI/DWI. Otorize assists in self regulating and reducing the likelihood of damage, accidents, injury and death.</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/otorize</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>2016-02-01</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>559,299</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr">
+        <is>
+          <t>Jerusalem, Yerushalayim, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Soly Emotional Health</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Soly blends ancient therapies with technological innovations to deliver accessible emotional relief to all in need.</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Soly provides accessible, on-demand mental health assistance by combining cutting-edge technology with expert human support. Our solutions, carefully designed by renowned trauma therapists, merge modern science with ancient practices to offer emotional healing that's available anytime and anywhere. The Problem: - More than 50% of trauma victims remain untreated. - There are significant gaps in public trauma education and support resources. - Existing systems often become overwhelmed during crises. Our Solution: - Our on-demand chatbot delivers personalized trauma therapy 24/7. - We focus on providing widespread public education and resilience skills. - We offer crisis responses for immediate, large-scale support. - Our approach integrates both modern and time-tested methodologies. Making a Meaningful Impact: - In just three weeks, we've onboarded over 14,000 users, with a daily retention rate of 5%. - We've achieved an average 28% reduction in anxiety and a 77% success rate in our initial trial. - We are currently in the process of integrating with government agencies. Unleashing Massive Potential: - The global mental wellness market is projected to exceed $280 billion by 2030. - We're rapidly expanding our services across Israel and the world. - We're deepening our collaboration with government emergency response teams.</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/soly-emotional-health</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>697,366</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>Jerusalem, Yerushalayim, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Bioimmunate</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Bioimmunate offers a precision blood filtering medical technology for select autoimmune diseases.</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Bioimmunate is a medical device company that offers a breakthrough precision blood filtering medical technology for select autoimmune diseases. Its platform technology has initial focus on the treatment of patients with multiple sclerosis or MS. Specific MS-related cells that migrate from the blood to the brain cause brain damage from MS. It has developed biological filters anchored inside special particles that are able to recognize, capture, and remove these harmful cells from the patient’s blood before they reach the central nervous system. It seeks to improving the quality of life of patients with autoimmune diseases, seeking to provide safer, more cost-effective therapies without side effects. Its main research and development laboratory is in the BioGiv Center at the Hebrew University in Jerusalem.</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/bioimmunate-technologies</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>2014-01-01</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>1,192,858</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>Jerusalem, Yerushalayim, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Snowflix</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Snowflix offers communication through audiovisual content platforms for people with autism and cognitive disabilities.</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/snowflix</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>1,253,597</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr">
+        <is>
+          <t>Tel Aviv, Tel Aviv, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NeuroAudit Ltd.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>NeuroAudit is developing an innovative closed-loop Neuromodulation technology steered for Personalized treatment of Brain disorders.</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/neuroaudit-ltd</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>1,401,130</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr"/>
+      <c r="BH44" t="inlineStr">
+        <is>
+          <t>Kibbutz Afikim, HaZafon, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CogniZance</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>CogniZance is a cognitively stimulating service for reinventing retirement through communication.</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>CogniZance is a cognitively stimulating service for reinventing retirement through communication. The company helps you build a brain-training routine and stimulate short and long term memory, attentiveness and creativity. It keeps older adults sharp, creative and socially engaged. Through refreshing daily interactions and scientifically-based brain-training, users create and maintain a healthy routine. CogniZance exercises focus on real-life skills and are fun, inspiring, often challenging and thought-provoking. The users make more out of retirement, feeling driven, and connected. it uses statistical and machine learning algorithms to create a truly personalized experience. CogniZance was founded in June 2017 and is based in Tel Aviv, Israel.</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/cognizance</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2017-06-01</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>2,877,769</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr"/>
+      <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="inlineStr"/>
+      <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
+      <c r="BH45" t="inlineStr">
+        <is>
+          <t>Tel Aviv, Tel Aviv, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Aposense</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Aposense is a molecular imaging and drug development company, with a pipeline of products, based on its apoptosis-based technology.</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Aposense (formerly NST) is a clinical-stage molecular imaging and drug development company, with a pipeline of products based on its patented platform technology for targeting apoptosis (programmed cell death) in vivo. The company translating the science of Apoptosis (programmed cell death) into personalized patient care in multiple disease categories, including oncology, cardiology, and neurology. Targeting of this important biological process in-vivo opens opportunities for real-time clinical imaging of disease activity and targeted therapy. Aposense specializing in the development of novel drugs and utilizing membrane electrical forces for trans-membrane of macromolecule drugs, mainly siRNA. It also developed rationally-designed molecular nano-motors (MNMs), being novel small-molecule chemical entities and its translation into kinetic energy for movement within the hydrophobic membrane core. Aposense was founded in 1996 and is headquartered in Petah Tiqva, HaMerkaz, Israel.</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/aposense</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1996-01-01</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>250,425</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
+      <c r="BH46" t="inlineStr">
+        <is>
+          <t>Petah Tiqva, HaMerkaz, Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>New Bio Technology</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>New Bio Technology provides lab instrumentation for neuroscience research and tailors solutions for various research entities.</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>https://www.crunchbase.com/organization/nbt-new-bio-technology</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>1992-01-01</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>653,014</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
+      <c r="AZ47" t="inlineStr"/>
+      <c r="BA47" t="inlineStr"/>
+      <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr"/>
+      <c r="BD47" t="inlineStr"/>
+      <c r="BE47" t="inlineStr"/>
+      <c r="BF47" t="inlineStr"/>
+      <c r="BG47" t="inlineStr"/>
+      <c r="BH47" t="inlineStr">
+        <is>
+          <t>Or Akiva, Hefa, Israel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
